--- a/data_excel/358.xlsx
+++ b/data_excel/358.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\AI\project2_extension\example_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51523895-48E3-4FB6-A269-FFFF23C6DCC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15645" yWindow="3000" windowWidth="10260" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15645" yWindow="3000" windowWidth="10260" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>球場</t>
   </si>
@@ -135,14 +134,18 @@
   </si>
   <si>
     <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +160,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -174,12 +184,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -481,16 +507,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -530,7 +556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -550,7 +576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -570,7 +596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -590,7 +616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -610,7 +636,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -621,7 +647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -632,7 +658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -643,7 +669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -654,7 +680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -662,7 +688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -673,18 +699,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -695,7 +721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -706,7 +732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -717,7 +743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>

--- a/data_excel/358.xlsx
+++ b/data_excel/358.xlsx
@@ -96,9 +96,6 @@
     <t>來</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -138,6 +135,10 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +512,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -524,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -533,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -544,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -553,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -564,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -573,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -584,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -593,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -604,7 +605,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -613,7 +614,7 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -633,7 +634,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -644,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -655,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -666,7 +667,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -677,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -696,29 +697,29 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -729,7 +730,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -740,12 +741,12 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>

--- a/data_excel/358.xlsx
+++ b/data_excel/358.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>球場</t>
   </si>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,12 +516,12 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,12 +541,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -550,8 +554,8 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>3</v>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
